--- a/biology/Zoologie/Crotalus_basiliscus/Crotalus_basiliscus.xlsx
+++ b/biology/Zoologie/Crotalus_basiliscus/Crotalus_basiliscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus basiliscus est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus basiliscus est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent venimeux dépasse souvent 150 cm, avec un record mesuré de 204 cm (Klauber, 1972). Elle est brune ou grise tirant parfois sur le vert avec motifs sombres sur le dos. La tête est gris-brun. Les juvéniles tirent sur le rouge.
 Cette espèce fréquente les mêmes zones que Crotalus molossus avec laquelle elle s'hybride souvent.
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du centre-ouest du Mexique. Elle se rencontre dans les États de Sinaloa, de Nayarit, de Jalisco, de Colima et de Michoacán[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du centre-ouest du Mexique. Elle se rencontre dans les États de Sinaloa, de Nayarit, de Jalisco, de Colima et de Michoacán.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce, et surtout les grands spécimens, peuvent produire une grande quantité de venin et peuvent être considérés comme dangereux. Elle peut injecter 297 mg de venin, et sa DL50 est estimée à 11,1 mg/kg en injection intraveineuse et 12,9 mg/kg en injection intrapéritonéale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, et surtout les grands spécimens, peuvent produire une grande quantité de venin et peuvent être considérés comme dangereux. Elle peut injecter 297 mg de venin, et sa DL50 est estimée à 11,1 mg/kg en injection intraveineuse et 12,9 mg/kg en injection intrapéritonéale.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 1989 deux sous-espèces étaient reconnues : C. b. basiliscus et C. b. oaxacus, dont la dernière est maintenant regroupée avec Crotalus molossus. Une autre sous-espèce, C. b. totonacus, est considérée comme une sous-espèce de Crotalus durissus[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 1989 deux sous-espèces étaient reconnues : C. b. basiliscus et C. b. oaxacus, dont la dernière est maintenant regroupée avec Crotalus molossus. Une autre sous-espèce, C. b. totonacus, est considérée comme une sous-espèce de Crotalus durissus
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1864 : Contributions to the herpetology of tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 16, p. 166-181 (texte intégral).</t>
         </is>
